--- a/biology/Mycologie/Bolet_à_pied_rouge/Bolet_à_pied_rouge.xlsx
+++ b/biology/Mycologie/Bolet_à_pied_rouge/Bolet_à_pied_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bolet_%C3%A0_pied_rouge</t>
+          <t>Bolet_à_pied_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neoboletus praestigiator, Neoboletus erythropus, Neoboletus luridiformis
-Neoboletus erythropus le Bolet à pied rouge, anciennement Boletus erythropus, est une espèce de champignons basidiomycètes, appartenant à la famille des Boletaceae. Commun dans l'hémisphère nord, il pousse dans les bois de feuillus ou de conifères, en été et en automne. Il est caractérisé par son pied rougeâtre ponctué et sa chair fortement bleuissante. C'est un bon comestible une fois bien cuit, il est toxique cru[2].
+Neoboletus erythropus le Bolet à pied rouge, anciennement Boletus erythropus, est une espèce de champignons basidiomycètes, appartenant à la famille des Boletaceae. Commun dans l'hémisphère nord, il pousse dans les bois de feuillus ou de conifères, en été et en automne. Il est caractérisé par son pied rougeâtre ponctué et sa chair fortement bleuissante. C'est un bon comestible une fois bien cuit, il est toxique cru.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bolet_%C3%A0_pied_rouge</t>
+          <t>Bolet_à_pied_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,29 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique valide de cette espèce, autrefois Neoboletus luridiformis (Rostk.) Gelardi, Simonini &amp; Vizzini (2014)[3], désormais invalide, fluctue aujourd'hui entre Neoboletus erythropus (Persoon) C. Hahn (2015)[4] et Neoboletus praestigiator (R. Schulz) Svetash., Gelardi, Simonini &amp; Vizzini (2016)[5], un consensus entre les deux taxons concernant l'interprétation de l'auteur devant encore se faire. Les auteurs français privilégient Neoboletus erythropus[6].
-Le basionyme est Boletus erythropus Pers. (1796)[7].
-Synonymes
-Neoboletus erythropus a pour synonymes:
-Boletus erythropus (Fr. ex Fr.) Krombh.[8]
-Boletus erythropus Krombh.[8]
-Boletus erythropus Pers.[8]
-Boletus luridus var. erythropus (Pers.) Fr.[8]
-Boletus luridus var. erythropus Fr.[8]
-Boletus miniatoporus Secr.[8]
-Boletus queletii Schulzer 1885[9]
-Tubiporus erythropus (Fr.) Maire[8]
-Tubiporus erythropus Kallenb.[8]
-Boletus praestigiator R. Schulz[10]
-Phylogénie
-Ce champignon est connu jusqu'en 2006 sous le nom de Boletus erythropus[11], puis Boletus luridiformis jusqu'en 2014, actuellement Neoboletus erythropus. Cette espèce a été décrite en 1844 par Friedrich Wilhelm Gottlieb Rotskof (1770-1848).
-Étymologie
-l'épithète spécifique vient du grec ερυθρος (« rouge ») et πους (« pied »)[12].
-Noms vulgaires et vernaculaires
-Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Bolet à pied rouge pour la variété nominale[13] et Bolet jonquille pour la variété pseudosulphureus[13].
-Le Bolet à pied rouge est également surnommé "la récompense du mycologue" pour ses qualités culinaires connues seulement des initiés[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique valide de cette espèce, autrefois Neoboletus luridiformis (Rostk.) Gelardi, Simonini &amp; Vizzini (2014), désormais invalide, fluctue aujourd'hui entre Neoboletus erythropus (Persoon) C. Hahn (2015) et Neoboletus praestigiator (R. Schulz) Svetash., Gelardi, Simonini &amp; Vizzini (2016), un consensus entre les deux taxons concernant l'interprétation de l'auteur devant encore se faire. Les auteurs français privilégient Neoboletus erythropus.
+Le basionyme est Boletus erythropus Pers. (1796).
 </t>
         </is>
       </c>
@@ -545,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bolet_%C3%A0_pied_rouge</t>
+          <t>Bolet_à_pied_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,16 +555,177 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neoboletus erythropus a pour synonymes:
+Boletus erythropus (Fr. ex Fr.) Krombh.
+Boletus erythropus Krombh.
+Boletus erythropus Pers.
+Boletus luridus var. erythropus (Pers.) Fr.
+Boletus luridus var. erythropus Fr.
+Boletus miniatoporus Secr.
+Boletus queletii Schulzer 1885
+Tubiporus erythropus (Fr.) Maire
+Tubiporus erythropus Kallenb.
+Boletus praestigiator R. Schulz
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bolet_à_pied_rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_%C3%A0_pied_rouge</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon est connu jusqu'en 2006 sous le nom de Boletus erythropus, puis Boletus luridiformis jusqu'en 2014, actuellement Neoboletus erythropus. Cette espèce a été décrite en 1844 par Friedrich Wilhelm Gottlieb Rotskof (1770-1848).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolet_à_pied_rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_%C3%A0_pied_rouge</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">l'épithète spécifique vient du grec ερυθρος (« rouge ») et πους (« pied »).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_à_pied_rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_%C3%A0_pied_rouge</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Bolet à pied rouge pour la variété nominale et Bolet jonquille pour la variété pseudosulphureus.
+Le Bolet à pied rouge est également surnommé "la récompense du mycologue" pour ses qualités culinaires connues seulement des initiés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_à_pied_rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_%C3%A0_pied_rouge</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques du Bolet à pied rouge sont les suivantes :
-Son chapeau mesure de 5 à 20 cm, il est bien en chair, sec et souvent velouté, de couleur sombre, brun chocolat à brun châtain noirâtre[15]. Il peut être parsemé de taches brun rougeâtre ou brunâtres.
-L'hyménophore présente des tubes jaunes puis jaune olivâtre, fortement bleuissants, terminés par des pores fins, visibles en regardant sous le chapeau, de couleur rouge à rouge orangé, fortement bleuissants eux aussi à la coupe ou à la pression[15]. La sporée est de couleur brun olivâtre.
-Son pied (stipe) mesure 5 à 15 cm x 1,5 à 5 cm, d'apparence rougeâtre mais en fait jaune vif entièrement couvert de fines ponctuations rouge vif persistantes, sans aucun réseau[15], une ornementation de stipe appelée "ponctuation", c'est un stipe dit "ponctué". Cette ponctuation est une de ses caractéristiques d'identification les plus fiables, les autres espèces lui ressemblant possédant pour la grande partie d'entre elles un stipe orné d'un réseau.
-Sa chair est de couleur jaune vif, épaisse et très ferme, bleuissant fortement à la coupe[15], puis passant au rouge sombre un peu plus tard. L'odeur est faiblement fruitée et la saveur douce.
+Son chapeau mesure de 5 à 20 cm, il est bien en chair, sec et souvent velouté, de couleur sombre, brun chocolat à brun châtain noirâtre. Il peut être parsemé de taches brun rougeâtre ou brunâtres.
+L'hyménophore présente des tubes jaunes puis jaune olivâtre, fortement bleuissants, terminés par des pores fins, visibles en regardant sous le chapeau, de couleur rouge à rouge orangé, fortement bleuissants eux aussi à la coupe ou à la pression. La sporée est de couleur brun olivâtre.
+Son pied (stipe) mesure 5 à 15 cm x 1,5 à 5 cm, d'apparence rougeâtre mais en fait jaune vif entièrement couvert de fines ponctuations rouge vif persistantes, sans aucun réseau, une ornementation de stipe appelée "ponctuation", c'est un stipe dit "ponctué". Cette ponctuation est une de ses caractéristiques d'identification les plus fiables, les autres espèces lui ressemblant possédant pour la grande partie d'entre elles un stipe orné d'un réseau.
+Sa chair est de couleur jaune vif, épaisse et très ferme, bleuissant fortement à la coupe, puis passant au rouge sombre un peu plus tard. L'odeur est faiblement fruitée et la saveur douce.
 Neoboletus erythropus peut parfois être plus au moins décoloré, se manifestant par son stipe tendant vers le jaune-brun, les pores devenant orangés vers le bord du chapeau, et le chapeau parfois brun clair se parsemant de taches ocres.
 	Principaux caractères distinctifs
 			Chapeau marron chocolat
@@ -581,31 +737,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bolet_%C3%A0_pied_rouge</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bolet_à_pied_rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bolet_%C3%A0_pied_rouge</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Caractéristiques microscopiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les basides mesurent 25–40 × 9–13 µ. Les spores fusiformes mesurent 12–18 × 4,5–6,5 µ . Les cystides ont une forme de bouteilles ou de fuseaux ventrus, ils sont dispersés parmi les pores et mesurent jusqu’à 50 µ. On observe sur la cuticule des terminaison d'hyphes (de 3 à 6 µ de diamètre) d'abord plus ou moins dressés puis rapidement couchés, légèrement gélatineux, surtout chez les exemplaires un peu âgés. Les terminaisons des cellules sont cylindriques ou un peu en forme de massue.
 </t>
